--- a/results/05-2022/comparison-deflators-05-2022.xlsx
+++ b/results/05-2022/comparison-deflators-05-2022.xlsx
@@ -545,28 +545,28 @@
         <v>0.017</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0051</v>
+        <v>0.0109</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0051</v>
+        <v>0.0076</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0051</v>
+        <v>0.0068</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0052</v>
+        <v>0.0062</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0052</v>
+        <v>0.0058</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0052</v>
+        <v>0.0056</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0052</v>
+        <v>0.0055</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0052</v>
+        <v>0.0053</v>
       </c>
       <c r="O2" t="n">
         <v>0.0052</v>
@@ -592,31 +592,31 @@
         <v>284.6077</v>
       </c>
       <c r="G3" t="n">
-        <v>273.2</v>
+        <v>286.521</v>
       </c>
       <c r="H3" t="n">
-        <v>274.725</v>
+        <v>289.086</v>
       </c>
       <c r="I3" t="n">
-        <v>276.219</v>
+        <v>291.41</v>
       </c>
       <c r="J3" t="n">
-        <v>277.776</v>
+        <v>293.561</v>
       </c>
       <c r="K3" t="n">
-        <v>279.358</v>
+        <v>295.516</v>
       </c>
       <c r="L3" t="n">
-        <v>280.97</v>
+        <v>297.365</v>
       </c>
       <c r="M3" t="n">
-        <v>282.605</v>
+        <v>299.155</v>
       </c>
       <c r="N3" t="n">
-        <v>284.262</v>
+        <v>300.906</v>
       </c>
       <c r="O3" t="n">
-        <v>285.94</v>
+        <v>302.646</v>
       </c>
     </row>
     <row r="4">
@@ -639,22 +639,22 @@
         <v>-0.0346</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0266</v>
+        <v>0.0263</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0266</v>
+        <v>0.0257</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0369</v>
+        <v>-0.0364</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.0362</v>
+        <v>-0.0355</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0001</v>
+        <v>-0.0003</v>
       </c>
       <c r="M4" t="n">
         <v>-0.0072</v>
@@ -663,7 +663,7 @@
         <v>-0.0071</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.0183</v>
+        <v>-0.0178</v>
       </c>
     </row>
     <row r="5">
@@ -686,31 +686,31 @@
         <v>-0.1503</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0658</v>
+        <v>-0.0824</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0253</v>
+        <v>-0.045</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0357</v>
+        <v>-0.0495</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.2066</v>
+        <v>-0.2023</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0715</v>
+        <v>-0.0623</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1875</v>
+        <v>-0.1657</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.2017</v>
+        <v>-0.1831</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.3404</v>
+        <v>-0.3165</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.4701</v>
+        <v>-0.4454</v>
       </c>
     </row>
     <row r="6">
@@ -733,31 +733,31 @@
         <v>-0.0198</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0134</v>
+        <v>-0.0126</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0178</v>
+        <v>-0.0164</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0092</v>
+        <v>-0.0077</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.0485</v>
+        <v>-0.0458</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0519</v>
+        <v>-0.0489</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0338</v>
+        <v>-0.0312</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0277</v>
+        <v>-0.0252</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0183</v>
+        <v>-0.0162</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.0064</v>
+        <v>-0.0047</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         <v>0.0261</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1634</v>
+        <v>0.1353</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2234</v>
+        <v>0.1813</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2512</v>
+        <v>0.2009</v>
       </c>
       <c r="J7" t="n">
-        <v>0.173</v>
+        <v>0.1206</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1534</v>
+        <v>0.1261</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.001</v>
+        <v>-0.0138</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.1155</v>
+        <v>-0.1178</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1084</v>
+        <v>-0.1074</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1562</v>
+        <v>-0.1514</v>
       </c>
     </row>
     <row r="8">
@@ -827,31 +827,31 @@
         <v>-0.6694</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.1196</v>
+        <v>-1.0758</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.0962</v>
+        <v>-1.0172</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.8168</v>
+        <v>-0.7489</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.5263</v>
+        <v>-0.4655</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.4319</v>
+        <v>-0.3754</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.352</v>
+        <v>-0.2988</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.2376</v>
+        <v>-0.1888</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.0124</v>
+        <v>0.0271</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1423</v>
+        <v>0.1549</v>
       </c>
     </row>
     <row r="9">
@@ -874,31 +874,31 @@
         <v>0.0834</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0002</v>
+        <v>-0.0007</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1901</v>
+        <v>-0.1876</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1222</v>
+        <v>-0.1201</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0622</v>
+        <v>-0.0609</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0517</v>
+        <v>-0.0505</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0234</v>
+        <v>-0.0229</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0335</v>
+        <v>-0.0326</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0664</v>
+        <v>-0.0642</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.0563</v>
+        <v>-0.0544</v>
       </c>
     </row>
     <row r="10">
@@ -921,31 +921,31 @@
         <v>0.1284</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0889</v>
+        <v>0.088</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0536</v>
+        <v>0.0515</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0931</v>
+        <v>-0.0922</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.0814</v>
+        <v>-0.0802</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0963</v>
+        <v>-0.094</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0961</v>
+        <v>-0.0932</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.085</v>
+        <v>-0.0822</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.0543</v>
+        <v>-0.0525</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.0522</v>
+        <v>-0.0502</v>
       </c>
     </row>
     <row r="11">
@@ -968,31 +968,31 @@
         <v>0.0182</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0044</v>
+        <v>0.0083</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0049</v>
+        <v>0.0075</v>
       </c>
       <c r="I11" t="n">
-        <v>0.005</v>
+        <v>0.0058</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0051</v>
+        <v>0.0054</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0051</v>
+        <v>0.0053</v>
       </c>
       <c r="L11" t="n">
         <v>0.0054</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0054</v>
+        <v>0.0055</v>
       </c>
       <c r="N11" t="n">
         <v>0.0055</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0054</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="12">
@@ -1015,31 +1015,31 @@
         <v>-0.7549</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1354</v>
+        <v>-0.1718</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.9879</v>
+        <v>-1.0194</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6233</v>
+        <v>-0.6648</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.2097</v>
+        <v>-0.2634</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0184</v>
+        <v>-0.0447</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2061</v>
+        <v>0.1835</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0782</v>
+        <v>0.0672</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.0081</v>
+        <v>-0.0117</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.0089</v>
+        <v>-0.0103</v>
       </c>
     </row>
     <row r="13">
@@ -1062,31 +1062,31 @@
         <v>-0.0628</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1942</v>
+        <v>-0.1949</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1801</v>
+        <v>-0.1775</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.0666</v>
+        <v>-0.0656</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0546</v>
+        <v>-0.0536</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.6197</v>
+        <v>-0.6002</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.6559</v>
+        <v>-0.6329</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.3211</v>
+        <v>-0.3093</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.197</v>
+        <v>-0.1898</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.3383</v>
+        <v>-0.3251</v>
       </c>
     </row>
     <row r="14">
@@ -1112,22 +1112,22 @@
         <v>-1.4714</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.0278</v>
+        <v>-1.0099</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4198</v>
+        <v>-0.4101</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.4106</v>
+        <v>-0.399</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.3146</v>
+        <v>-0.3045</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.147</v>
+        <v>-0.1418</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.0047</v>
+        <v>-0.0045</v>
       </c>
       <c r="N14" t="n">
         <v>0.0007</v>
@@ -1156,31 +1156,31 @@
         <v>-3.4728</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.6893</v>
+        <v>-4.1001</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.4815</v>
+        <v>-3.5726</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.2885</v>
+        <v>-2.3133</v>
       </c>
       <c r="J15" t="n">
-        <v>-2.0115</v>
+        <v>-2.016</v>
       </c>
       <c r="K15" t="n">
-        <v>-3.0404</v>
+        <v>-2.9031</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.2882</v>
+        <v>-1.1515</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.9411</v>
+        <v>-0.8051</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.6559</v>
+        <v>-0.5249</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.6653</v>
+        <v>-0.5631</v>
       </c>
     </row>
     <row r="16">
@@ -1203,31 +1203,31 @@
         <v>24384.3</v>
       </c>
       <c r="G16" t="n">
-        <v>24520.4</v>
+        <v>24956.9</v>
       </c>
       <c r="H16" t="n">
-        <v>24798.4</v>
+        <v>25388.3</v>
       </c>
       <c r="I16" t="n">
-        <v>25043.6</v>
+        <v>25773.5</v>
       </c>
       <c r="J16" t="n">
-        <v>25255</v>
+        <v>26095.1</v>
       </c>
       <c r="K16" t="n">
-        <v>25458.8</v>
+        <v>26403.7</v>
       </c>
       <c r="L16" t="n">
-        <v>25667.5</v>
+        <v>26686.3</v>
       </c>
       <c r="M16" t="n">
-        <v>25876.7</v>
+        <v>26931.4</v>
       </c>
       <c r="N16" t="n">
-        <v>26078.1</v>
+        <v>27173.9</v>
       </c>
       <c r="O16" t="n">
-        <v>26293.7</v>
+        <v>27411.1</v>
       </c>
     </row>
     <row r="17">
@@ -1250,31 +1250,31 @@
         <v>0.3821</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0344</v>
+        <v>-0.0953</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0217</v>
+        <v>0.0038</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.012</v>
+        <v>-0.0174</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1982</v>
+        <v>-0.1948</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.042</v>
+        <v>-0.0354</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.1288</v>
+        <v>-0.114</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.1217</v>
+        <v>-0.1071</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.2815</v>
+        <v>-0.2611</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.4055</v>
+        <v>-0.3797</v>
       </c>
     </row>
     <row r="18">
@@ -1297,28 +1297,28 @@
         <v>0.0046</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0053</v>
+        <v>0.0048</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0053</v>
+        <v>0.0048</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0052</v>
+        <v>0.0048</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0051</v>
+        <v>0.0048</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0051</v>
+        <v>0.0048</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0051</v>
+        <v>0.0048</v>
       </c>
       <c r="M18" t="n">
-        <v>0.005</v>
+        <v>0.0048</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0049</v>
+        <v>0.0048</v>
       </c>
       <c r="O18" t="n">
         <v>0.0048</v>
@@ -1347,16 +1347,16 @@
         <v>-0.0229</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0344</v>
+        <v>-0.0338</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.0223</v>
+        <v>-0.0218</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0221</v>
+        <v>-0.0215</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.0895</v>
+        <v>-1.0544</v>
       </c>
       <c r="L19" t="n">
         <v>-0.0002</v>
@@ -1365,7 +1365,7 @@
         <v>-0.0002</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.0112</v>
+        <v>-0.0108</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1394,19 +1394,19 @@
         <v>-1.0198</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0307</v>
+        <v>-0.0301</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.0206</v>
+        <v>-0.0202</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.5397</v>
+        <v>-0.5244</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.2625</v>
+        <v>-0.2541</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0349</v>
+        <v>-0.0337</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1438,31 +1438,31 @@
         <v>-0.649</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4684</v>
+        <v>0.2124</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1953</v>
+        <v>0.1167</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0304</v>
+        <v>0.0052</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1427</v>
+        <v>0.129</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0901</v>
+        <v>-0.0642</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0537</v>
+        <v>-0.0069</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.0675</v>
+        <v>-0.0202</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0862</v>
+        <v>0.1256</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2116</v>
+        <v>0.2478</v>
       </c>
     </row>
     <row r="22">
@@ -1485,31 +1485,31 @@
         <v>-0.0385</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0175</v>
+        <v>-0.017</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.0182</v>
+        <v>-0.0173</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.0119</v>
+        <v>-0.011</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.0146</v>
+        <v>-0.0135</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.016</v>
+        <v>-0.0148</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0075</v>
+        <v>-0.0066</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0059</v>
+        <v>-0.005</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.0021</v>
+        <v>-0.0014</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0009</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="23">
@@ -1532,31 +1532,31 @@
         <v>0.0413</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.0222</v>
+        <v>-0.0263</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.1278</v>
+        <v>-0.1313</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.0773</v>
+        <v>-0.0821</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0521</v>
+        <v>0.0435</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0455</v>
+        <v>0.0407</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2085</v>
+        <v>0.1991</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1678</v>
+        <v>0.1603</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1362</v>
+        <v>0.1304</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1053</v>
+        <v>0.1008</v>
       </c>
     </row>
     <row r="24">
@@ -1579,31 +1579,31 @@
         <v>-0.124</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2345</v>
+        <v>-0.2112</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.1839</v>
+        <v>-0.1491</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.1642</v>
+        <v>-0.1348</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.1361</v>
+        <v>-0.1083</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.1047</v>
+        <v>-0.079</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0985</v>
+        <v>-0.0737</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.0807</v>
+        <v>-0.0568</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.0573</v>
+        <v>-0.0346</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.0196</v>
+        <v>-0.0093</v>
       </c>
     </row>
     <row r="25">
@@ -1626,31 +1626,31 @@
         <v>0.0266</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0084</v>
+        <v>0.0162</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0085</v>
+        <v>0.0111</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0084</v>
+        <v>0.0094</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0083</v>
+        <v>0.0089</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0083</v>
+        <v>0.0079</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0084</v>
+        <v>0.0073</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0082</v>
+        <v>0.0071</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0081</v>
+        <v>0.007</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0081</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="26">
@@ -1732,19 +1732,19 @@
         <v>-0.0006</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0008</v>
+        <v>-0.0007</v>
       </c>
       <c r="L27" t="n">
         <v>-0.0005</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.0005</v>
+        <v>-0.0004</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.0015</v>
+        <v>-0.0014</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.0045</v>
+        <v>-0.0044</v>
       </c>
     </row>
     <row r="28">
@@ -1767,31 +1767,31 @@
         <v>-0.1278</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2253</v>
+        <v>-0.2257</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.0842</v>
+        <v>-0.0832</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.0435</v>
+        <v>-0.043</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.0339</v>
+        <v>-0.0335</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0236</v>
+        <v>-0.0233</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0147</v>
+        <v>-0.0145</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0024</v>
+        <v>-0.0025</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0013</v>
+        <v>0.0011</v>
       </c>
       <c r="O28" t="n">
-        <v>0.0007</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="29">
@@ -1814,28 +1814,28 @@
         <v>-0.0001</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.0096</v>
+        <v>-0.0038</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.0072</v>
+        <v>-0.0047</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.0047</v>
+        <v>-0.0031</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.0047</v>
+        <v>-0.0037</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0034</v>
+        <v>-0.0029</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0022</v>
+        <v>-0.0018</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0022</v>
+        <v>-0.0019</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.0022</v>
+        <v>-0.0021</v>
       </c>
       <c r="O29" t="n">
         <v>-0.001</v>
@@ -1861,31 +1861,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>13.321</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>14.361</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>15.191</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>15.785</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>16.158</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>16.395</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>16.55</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>16.644</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>16.706</v>
       </c>
     </row>
     <row r="31">
@@ -1908,31 +1908,31 @@
         <v>0.0002</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0008</v>
+        <v>0.0004</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0013</v>
+        <v>0.0003</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0012</v>
+        <v>0.0017</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0009</v>
+        <v>0.0017</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0008</v>
+        <v>0.0005</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0008</v>
+        <v>0.0005</v>
       </c>
       <c r="M31" t="n">
         <v>0.0008</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0007</v>
+        <v>0.0008</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0007</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="32">
@@ -1955,31 +1955,31 @@
         <v>-0.0001</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2896</v>
+        <v>0.1413</v>
       </c>
       <c r="H32" t="n">
-        <v>0.216</v>
+        <v>0.1457</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1869</v>
+        <v>0.1731</v>
       </c>
       <c r="J32" t="n">
-        <v>0.048</v>
+        <v>0.0522</v>
       </c>
       <c r="K32" t="n">
-        <v>0.2161</v>
+        <v>0.2253</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1183</v>
+        <v>0.1401</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0177</v>
+        <v>0.0363</v>
       </c>
       <c r="N32" t="n">
-        <v>1.4193</v>
+        <v>1.4433</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0879</v>
+        <v>0.1125</v>
       </c>
     </row>
     <row r="33">
@@ -2002,31 +2002,31 @@
         <v>0.0003</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0025</v>
+        <v>0.0033</v>
       </c>
       <c r="H33" t="n">
-        <v>0.005</v>
+        <v>0.0064</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0053</v>
+        <v>0.0068</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0056</v>
+        <v>0.0083</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0062</v>
+        <v>0.0092</v>
       </c>
       <c r="L33" t="n">
-        <v>0.007</v>
+        <v>0.0096</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0004</v>
+        <v>0.0029</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.0059</v>
+        <v>-0.0038</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.0118</v>
+        <v>-0.0102</v>
       </c>
     </row>
     <row r="34">
@@ -2049,31 +2049,31 @@
         <v>-0.0375</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1219</v>
+        <v>0.0938</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2375</v>
+        <v>0.1954</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3353</v>
+        <v>0.285</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4744</v>
+        <v>0.422</v>
       </c>
       <c r="K34" t="n">
-        <v>0.4081</v>
+        <v>0.3808</v>
       </c>
       <c r="L34" t="n">
-        <v>0.2159</v>
+        <v>0.2031</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0759</v>
+        <v>0.0736</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.0414</v>
+        <v>-0.0404</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.1557</v>
+        <v>-0.1509</v>
       </c>
     </row>
     <row r="35">
@@ -2096,31 +2096,31 @@
         <v>-0.4571</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.6648</v>
+        <v>-0.621</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.6869</v>
+        <v>-0.6079</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.624</v>
+        <v>-0.556</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.5673</v>
+        <v>-0.5064</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.5821</v>
+        <v>-0.5256</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.587</v>
+        <v>-0.5338</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.4619</v>
+        <v>-0.4131</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.174</v>
+        <v>-0.1345</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.0155</v>
+        <v>-0.0029</v>
       </c>
     </row>
     <row r="36">
@@ -2143,31 +2143,31 @@
         <v>0.0003</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0019</v>
+        <v>0.001</v>
       </c>
       <c r="H36" t="n">
-        <v>0.002</v>
+        <v>0.0045</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0019</v>
+        <v>0.004</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0013</v>
+        <v>0.0026</v>
       </c>
       <c r="K36" t="n">
-        <v>0.001</v>
+        <v>0.0023</v>
       </c>
       <c r="L36" t="n">
-        <v>0.001</v>
+        <v>0.0014</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0009</v>
+        <v>0.0018</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0009</v>
+        <v>0.0031</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0009</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="37">
@@ -2190,31 +2190,31 @@
         <v>0.0003</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0019</v>
+        <v>0.001</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0028</v>
+        <v>0.0008</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0033</v>
+        <v>0.0043</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0031</v>
+        <v>0.0043</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0026</v>
+        <v>0.0049</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0019</v>
+        <v>0.0048</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0014</v>
+        <v>0.0043</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0011</v>
+        <v>0.0029</v>
       </c>
       <c r="O37" t="n">
-        <v>0.0007</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="38">
@@ -2237,31 +2237,31 @@
         <v>0.0011</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.0102</v>
+        <v>-0.0063</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.0073</v>
+        <v>-0.0048</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.0048</v>
+        <v>-0.0041</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.0047</v>
+        <v>-0.0045</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0035</v>
+        <v>-0.0033</v>
       </c>
       <c r="L38" t="n">
         <v>-0.002</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.002</v>
+        <v>-0.0019</v>
       </c>
       <c r="N38" t="n">
         <v>-0.0019</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.0008</v>
+        <v>-0.0006</v>
       </c>
     </row>
     <row r="39">
@@ -2284,31 +2284,31 @@
         <v>0.0319</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0782</v>
+        <v>0.0419</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1228</v>
+        <v>0.0913</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1478</v>
+        <v>0.1063</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1556</v>
+        <v>0.1019</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1296</v>
+        <v>0.1033</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0971</v>
+        <v>0.0745</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0814</v>
+        <v>0.0705</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0657</v>
+        <v>0.0622</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0496</v>
+        <v>0.0482</v>
       </c>
     </row>
     <row r="40">
@@ -2331,31 +2331,31 @@
         <v>0.0038</v>
       </c>
       <c r="G40" t="n">
-        <v>0.002</v>
+        <v>0.0014</v>
       </c>
       <c r="H40" t="n">
-        <v>0.002</v>
+        <v>0.0046</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0019</v>
+        <v>0.0029</v>
       </c>
       <c r="J40" t="n">
-        <v>0.002</v>
+        <v>0.0031</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0022</v>
+        <v>0.0217</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0021</v>
+        <v>0.0251</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0019</v>
+        <v>0.0137</v>
       </c>
       <c r="N40" t="n">
-        <v>0.0018</v>
+        <v>0.0091</v>
       </c>
       <c r="O40" t="n">
-        <v>0.0018</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="41">
@@ -2378,28 +2378,28 @@
         <v>0.0018</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0017</v>
+        <v>0.0016</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0011</v>
+        <v>0.019</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0007</v>
+        <v>0.0104</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0006</v>
+        <v>0.0122</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0004</v>
+        <v>0.0105</v>
       </c>
       <c r="L41" t="n">
+        <v>0.0055</v>
+      </c>
+      <c r="M41" t="n">
         <v>0.0003</v>
       </c>
-      <c r="M41" t="n">
-        <v>0.0002</v>
-      </c>
       <c r="N41" t="n">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="O41" t="n">
         <v>0.0001</v>
@@ -2425,31 +2425,31 @@
         <v>-0.5177</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0142</v>
+        <v>-0.3966</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.2086</v>
+        <v>-0.2997</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.1926</v>
+        <v>-0.2173</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.0444</v>
+        <v>-0.0489</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0116</v>
+        <v>0.1489</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.1572</v>
+        <v>-0.0205</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.3153</v>
+        <v>-0.1793</v>
       </c>
       <c r="N42" t="n">
-        <v>1.1741</v>
+        <v>1.305</v>
       </c>
       <c r="O42" t="n">
-        <v>0.4742</v>
+        <v>0.5765</v>
       </c>
     </row>
     <row r="43">
@@ -2472,31 +2472,31 @@
         <v>1.6</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>436.5</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>589.9</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>729.9</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>840.1</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>944.9</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1018.8</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1054.7</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1095.8</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1117.4</v>
       </c>
     </row>
     <row r="44">
@@ -2519,31 +2519,31 @@
         <v>-0.0087</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0928</v>
+        <v>0.0319</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0716</v>
+        <v>0.0536</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0628</v>
+        <v>0.0574</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0531</v>
+        <v>0.0565</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0426</v>
+        <v>0.0491</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0321</v>
+        <v>0.0469</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0333</v>
+        <v>0.0479</v>
       </c>
       <c r="N44" t="n">
-        <v>0.0235</v>
+        <v>0.0439</v>
       </c>
       <c r="O44" t="n">
-        <v>0.0138</v>
+        <v>0.0396</v>
       </c>
     </row>
     <row r="45">
@@ -2566,28 +2566,28 @@
         <v>-0.0007</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -2616,25 +2616,25 @@
         <v>0.0004</v>
       </c>
       <c r="H46" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.0354</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>0.0004</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -2663,19 +2663,19 @@
         <v>0.0007</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0003</v>
+        <v>0.0009</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0003</v>
+        <v>0.0008</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0003</v>
+        <v>0.0156</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0001</v>
+        <v>0.0086</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -2707,31 +2707,31 @@
         <v>0.0528</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3679</v>
+        <v>0.112</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1187</v>
+        <v>0.0402</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.0753</v>
+        <v>-0.1005</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.0918</v>
+        <v>-0.1055</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.1603</v>
+        <v>-0.1344</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.2025</v>
+        <v>-0.1557</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.1584</v>
+        <v>-0.1111</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.1589</v>
+        <v>-0.1195</v>
       </c>
       <c r="O48" t="n">
-        <v>0.4801</v>
+        <v>0.5163</v>
       </c>
     </row>
     <row r="49">
@@ -2754,31 +2754,31 @@
         <v>-0.0243</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.0032</v>
+        <v>-0.0028</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.005</v>
+        <v>-0.0041</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0005</v>
+        <v>0.0015</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.0004</v>
+        <v>0.0007</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.0012</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.0016</v>
+        <v>-0.0007</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.0017</v>
+        <v>-0.0008</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.0019</v>
+        <v>-0.0011</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.0017</v>
+        <v>-0.0011</v>
       </c>
     </row>
     <row r="50">
@@ -2801,31 +2801,31 @@
         <v>-0.0698</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.112</v>
+        <v>-0.1162</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.1258</v>
+        <v>-0.1292</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.0858</v>
+        <v>-0.0906</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0191</v>
+        <v>0.0106</v>
       </c>
       <c r="K50" t="n">
-        <v>0.095</v>
+        <v>0.0902</v>
       </c>
       <c r="L50" t="n">
-        <v>0.301</v>
+        <v>0.2916</v>
       </c>
       <c r="M50" t="n">
-        <v>0.2399</v>
+        <v>0.2324</v>
       </c>
       <c r="N50" t="n">
-        <v>0.1807</v>
+        <v>0.1749</v>
       </c>
       <c r="O50" t="n">
-        <v>0.123</v>
+        <v>0.1185</v>
       </c>
     </row>
     <row r="51">
@@ -2848,31 +2848,31 @@
         <v>-0.0229</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.0829</v>
+        <v>-0.0597</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.1127</v>
+        <v>-0.0778</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.1074</v>
+        <v>-0.0779</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.1129</v>
+        <v>-0.085</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.1205</v>
+        <v>-0.0949</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.1214</v>
+        <v>-0.0966</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.1224</v>
+        <v>-0.0985</v>
       </c>
       <c r="N51" t="n">
-        <v>-0.1213</v>
+        <v>-0.0987</v>
       </c>
       <c r="O51" t="n">
-        <v>-0.091</v>
+        <v>-0.0808</v>
       </c>
     </row>
     <row r="52">
@@ -2895,31 +2895,31 @@
         <v>0.0017</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.0111</v>
+        <v>-0.0032</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.0086</v>
+        <v>-0.006</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.0075</v>
+        <v>-0.0064</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.0063</v>
+        <v>-0.0058</v>
       </c>
       <c r="K52" t="n">
+        <v>-0.0056</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="M52" t="n">
         <v>-0.0052</v>
       </c>
-      <c r="L52" t="n">
-        <v>-0.0039</v>
-      </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>-0.0041</v>
       </c>
-      <c r="N52" t="n">
-        <v>-0.0029</v>
-      </c>
       <c r="O52" t="n">
-        <v>-0.0018</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="53">
@@ -3010,10 +3010,10 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="55">
@@ -3036,31 +3036,31 @@
         <v>0.0004</v>
       </c>
       <c r="G55" t="n">
-        <v>0.001</v>
+        <v>0.0006</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0014</v>
+        <v>0.0024</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0015</v>
+        <v>0.002</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0017</v>
+        <v>0.0021</v>
       </c>
       <c r="K55" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L55" t="n">
         <v>0.0016</v>
       </c>
-      <c r="L55" t="n">
-        <v>0.0014</v>
-      </c>
       <c r="M55" t="n">
-        <v>0.0012</v>
+        <v>0.0011</v>
       </c>
       <c r="N55" t="n">
-        <v>0.0011</v>
+        <v>0.0009</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0009</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="56">

--- a/results/05-2022/comparison-deflators-05-2022.xlsx
+++ b/results/05-2022/comparison-deflators-05-2022.xlsx
@@ -686,10 +686,10 @@
         <v>-0.1503</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0824</v>
+        <v>0.1146</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.045</v>
+        <v>-0.2406</v>
       </c>
       <c r="I5" t="n">
         <v>-0.0495</v>
@@ -780,31 +780,31 @@
         <v>0.0261</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1353</v>
+        <v>0.0006</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1813</v>
+        <v>0.0491</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2009</v>
+        <v>0.0711</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1206</v>
+        <v>0.0484</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1261</v>
+        <v>0.1798</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0138</v>
+        <v>0.0433</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.1178</v>
+        <v>-0.0098</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1074</v>
+        <v>-0.0532</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1514</v>
+        <v>-0.0965</v>
       </c>
     </row>
     <row r="8">
@@ -874,31 +874,31 @@
         <v>0.0834</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0007</v>
+        <v>0.0682</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1876</v>
+        <v>-0.2077</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1201</v>
+        <v>-0.1207</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0609</v>
+        <v>-0.0848</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0505</v>
+        <v>-0.0507</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0229</v>
+        <v>-0.0232</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0326</v>
+        <v>-0.0329</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0642</v>
+        <v>-0.0644</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.0544</v>
+        <v>-0.0547</v>
       </c>
     </row>
     <row r="10">
@@ -1015,25 +1015,25 @@
         <v>-0.7549</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1718</v>
+        <v>-0.0884</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.0194</v>
+        <v>-0.7622</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6648</v>
+        <v>-0.4149</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.2634</v>
+        <v>-0.27</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0447</v>
+        <v>-0.1292</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1835</v>
+        <v>-0.0661</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0672</v>
+        <v>-0.1769</v>
       </c>
       <c r="N12" t="n">
         <v>-0.0117</v>
@@ -1062,31 +1062,31 @@
         <v>-0.0628</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1949</v>
+        <v>-0.1803</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1775</v>
+        <v>-0.1796</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.0656</v>
+        <v>-0.0664</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0536</v>
+        <v>-0.0543</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.6002</v>
+        <v>-0.601</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.6329</v>
+        <v>-0.633</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.3093</v>
+        <v>-0.3094</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.1898</v>
+        <v>-0.1899</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.3251</v>
+        <v>-0.3258</v>
       </c>
     </row>
     <row r="14">
@@ -1106,34 +1106,34 @@
         <v>-1.0718</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9903</v>
+        <v>-0.9899</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.4714</v>
+        <v>-1.4822</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.0099</v>
+        <v>-1.019</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4101</v>
+        <v>-0.4185</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.399</v>
+        <v>-0.4068</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.3045</v>
+        <v>-0.3092</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.1418</v>
+        <v>-0.1444</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.0045</v>
+        <v>-0.0072</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0007</v>
+        <v>-0.0016</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1156,31 +1156,31 @@
         <v>-3.4728</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.1001</v>
+        <v>-4.1061</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.5726</v>
+        <v>-3.501</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.3133</v>
+        <v>-2.2257</v>
       </c>
       <c r="J15" t="n">
-        <v>-2.016</v>
+        <v>-2.1498</v>
       </c>
       <c r="K15" t="n">
-        <v>-2.9031</v>
+        <v>-2.9398</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.1515</v>
+        <v>-1.3519</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.8051</v>
+        <v>-0.9488</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.5249</v>
+        <v>-0.4768</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.5631</v>
+        <v>-0.5114</v>
       </c>
     </row>
     <row r="16">
@@ -1250,10 +1250,10 @@
         <v>0.3821</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0953</v>
+        <v>0.1018</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0038</v>
+        <v>-0.1918</v>
       </c>
       <c r="I17" t="n">
         <v>-0.0174</v>
@@ -1438,10 +1438,10 @@
         <v>-0.649</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2124</v>
+        <v>0.0154</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1167</v>
+        <v>0.3123</v>
       </c>
       <c r="I21" t="n">
         <v>0.0052</v>
@@ -1532,31 +1532,31 @@
         <v>0.0413</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.0263</v>
+        <v>-0.0492</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.1313</v>
+        <v>-0.154</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.0821</v>
+        <v>-0.105</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0435</v>
+        <v>0.0207</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0407</v>
+        <v>0.0393</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1991</v>
+        <v>0.1934</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1603</v>
+        <v>0.1558</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1304</v>
+        <v>0.1266</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1008</v>
+        <v>0.0979</v>
       </c>
     </row>
     <row r="24">
@@ -1764,34 +1764,34 @@
         <v>-0.0919</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.1278</v>
+        <v>-0.1281</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2257</v>
+        <v>-0.2303</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.0832</v>
+        <v>-0.0825</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.043</v>
+        <v>-0.0427</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.0335</v>
+        <v>-0.0331</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0233</v>
+        <v>-0.0219</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0145</v>
+        <v>-0.0136</v>
       </c>
       <c r="M28" t="n">
         <v>-0.0025</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0011</v>
+        <v>0.0013</v>
       </c>
       <c r="O28" t="n">
-        <v>0.0005</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="29">
@@ -1955,10 +1955,10 @@
         <v>-0.0001</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1413</v>
+        <v>0.3384</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1457</v>
+        <v>-0.0499</v>
       </c>
       <c r="I32" t="n">
         <v>0.1731</v>
@@ -2049,31 +2049,31 @@
         <v>-0.0375</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0938</v>
+        <v>-0.0409</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1954</v>
+        <v>0.0632</v>
       </c>
       <c r="I34" t="n">
-        <v>0.285</v>
+        <v>0.1552</v>
       </c>
       <c r="J34" t="n">
-        <v>0.422</v>
+        <v>0.3498</v>
       </c>
       <c r="K34" t="n">
-        <v>0.3808</v>
+        <v>0.4344</v>
       </c>
       <c r="L34" t="n">
-        <v>0.2031</v>
+        <v>0.2602</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0736</v>
+        <v>0.1816</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.0404</v>
+        <v>0.0138</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.1509</v>
+        <v>-0.0959</v>
       </c>
     </row>
     <row r="35">
@@ -2143,31 +2143,31 @@
         <v>0.0003</v>
       </c>
       <c r="G36" t="n">
-        <v>0.001</v>
+        <v>0.0699</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0045</v>
+        <v>-0.0155</v>
       </c>
       <c r="I36" t="n">
-        <v>0.004</v>
+        <v>0.0034</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0026</v>
+        <v>-0.0213</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0023</v>
+        <v>0.002</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0014</v>
+        <v>0.0011</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0018</v>
+        <v>0.0016</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0031</v>
+        <v>0.0029</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0028</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="37">
@@ -2284,25 +2284,25 @@
         <v>0.0319</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0419</v>
+        <v>0.1253</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0913</v>
+        <v>0.3485</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1063</v>
+        <v>0.3561</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1019</v>
+        <v>0.0952</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1033</v>
+        <v>0.0188</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0745</v>
+        <v>-0.175</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0705</v>
+        <v>-0.1737</v>
       </c>
       <c r="N39" t="n">
         <v>0.0622</v>
@@ -2331,31 +2331,31 @@
         <v>0.0038</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0014</v>
+        <v>0.016</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0046</v>
+        <v>0.0025</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0029</v>
+        <v>0.0021</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0031</v>
+        <v>0.0023</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0217</v>
+        <v>0.021</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0251</v>
+        <v>0.025</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0137</v>
+        <v>0.0136</v>
       </c>
       <c r="N40" t="n">
-        <v>0.0091</v>
+        <v>0.0089</v>
       </c>
       <c r="O40" t="n">
-        <v>0.015</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="41">
@@ -2375,34 +2375,34 @@
         <v>0.0022</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0018</v>
+        <v>0.0022</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0016</v>
+        <v>-0.0092</v>
       </c>
       <c r="H41" t="n">
-        <v>0.019</v>
+        <v>0.0099</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0104</v>
+        <v>0.002</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0122</v>
+        <v>0.0043</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0105</v>
+        <v>0.0058</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0055</v>
+        <v>0.0029</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0003</v>
+        <v>-0.0023</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0001</v>
+        <v>-0.0021</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0001</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="42">
@@ -2425,31 +2425,31 @@
         <v>-0.5177</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.3966</v>
+        <v>-0.4026</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.2997</v>
+        <v>-0.2281</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.2173</v>
+        <v>-0.1297</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.0489</v>
+        <v>-0.1827</v>
       </c>
       <c r="K42" t="n">
-        <v>0.1489</v>
+        <v>0.1122</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0205</v>
+        <v>-0.2208</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.1793</v>
+        <v>-0.323</v>
       </c>
       <c r="N42" t="n">
-        <v>1.305</v>
+        <v>1.3531</v>
       </c>
       <c r="O42" t="n">
-        <v>0.5765</v>
+        <v>0.6281</v>
       </c>
     </row>
     <row r="43">
@@ -2519,10 +2519,10 @@
         <v>-0.0087</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0319</v>
+        <v>0.229</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0536</v>
+        <v>-0.1419</v>
       </c>
       <c r="I44" t="n">
         <v>0.0574</v>
@@ -2707,10 +2707,10 @@
         <v>0.0528</v>
       </c>
       <c r="G48" t="n">
-        <v>0.112</v>
+        <v>-0.0851</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0402</v>
+        <v>0.2358</v>
       </c>
       <c r="I48" t="n">
         <v>-0.1005</v>
@@ -2801,31 +2801,31 @@
         <v>-0.0698</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.1162</v>
+        <v>-0.139</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.1292</v>
+        <v>-0.152</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.0906</v>
+        <v>-0.1135</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0106</v>
+        <v>-0.0122</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0902</v>
+        <v>0.0888</v>
       </c>
       <c r="L50" t="n">
-        <v>0.2916</v>
+        <v>0.2859</v>
       </c>
       <c r="M50" t="n">
-        <v>0.2324</v>
+        <v>0.2279</v>
       </c>
       <c r="N50" t="n">
-        <v>0.1749</v>
+        <v>0.1712</v>
       </c>
       <c r="O50" t="n">
-        <v>0.1185</v>
+        <v>0.1156</v>
       </c>
     </row>
     <row r="51">
@@ -3033,34 +3033,34 @@
         <v>0.0004</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0006</v>
+        <v>-0.0039</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0024</v>
+        <v>0.0031</v>
       </c>
       <c r="I55" t="n">
-        <v>0.002</v>
+        <v>0.0023</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0021</v>
+        <v>0.0025</v>
       </c>
       <c r="K55" t="n">
-        <v>0.002</v>
+        <v>0.0033</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0016</v>
+        <v>0.0025</v>
       </c>
       <c r="M55" t="n">
         <v>0.0011</v>
       </c>
       <c r="N55" t="n">
-        <v>0.0009</v>
+        <v>0.0012</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0007</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="56">
